--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/34_Giresun_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/34_Giresun_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B72CD53E-7403-4D5A-AEE5-14A75A63A010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A9EAD5-46F6-4489-ADDB-71C582269E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{77340C9C-58A8-4AB2-A54C-3E577C5238BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{AECDE054-4600-4F4F-93C5-942F443509B3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{6EEFE10C-88E5-4345-8DEC-547550329C1A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AC732305-8F13-4250-A816-1228437A9DB5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8EE5CECB-FAD0-4787-A552-E57301630AB3}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6E67F3D7-92AC-423E-A0FA-22CDCDF566CB}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5D6563B7-2087-4C15-A784-2ECD73484799}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{8031DA1E-31E9-49DD-8F2C-6927F51C80D3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{00F2DF73-53B5-472E-B53B-3BEFD59284C6}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{083264BD-745B-48EA-9180-6AD139285724}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{30B7E5AC-8255-48A7-B7E6-C930345D3CD0}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{409269FA-3791-46EA-AA23-8A46E9D12B11}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{12F78419-20A2-4DD2-97C9-6BE16A1E1D1E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C8663990-D238-4C0C-AB4C-19575D4556C3}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{85C8587F-4AFB-498F-A8DD-949C25CC67BB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B2435EA5-E31A-42FC-9FB9-A6B73264A95E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBA685D-CDE9-4E3E-9947-DFC694A7FB1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487DC187-8375-4FFE-BE76-BA02F8AF1013}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2625,18 +2625,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7BA7379-941F-4F1F-B6DE-B359DC19B48B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F714E692-3B59-400D-9298-3C54EDF4F2B5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{817053FD-C185-42AD-A0B8-BF3758BBBDF9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA963F05-A847-4356-8464-B39BE8CB93C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F4222EC-272D-4E1D-865E-A8C7590B7D1A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{883AEEBC-8A6E-414D-B17B-C55C7E6FBC4E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE2426D7-17B7-4AB2-BE50-5EAAC7BD8CCA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4FEA7C04-E574-43C6-B837-3429A38172EB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2242B514-0D2E-48F5-ABA5-F9B06BCF30F8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FABE63B2-68ED-4842-A65C-9228679A7190}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D3362AD-351A-4916-A4E2-718B39AA64DD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B665AB9-A4B8-4B9F-8B93-EC6F58F00C49}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65840270-E280-489A-B7FB-E87CA4F2A5A0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB967DB6-2FFE-4163-95B6-C2C0788CD8EC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E2D245EE-B313-44BE-A99C-C565111FA55F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC87B181-302D-4137-A908-C275EAC69250}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12A547F6-2C36-4FE4-B256-02062A489143}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E3250B3A-8FD2-4B4F-9AF5-08FA5D1967F5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52F5C36A-EAA1-4FE0-BCA5-1B67D5C77E4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18B141A9-DFCA-452D-86A3-AE55116DC446}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8FB4ACD8-60F3-44B4-A7E2-3DCDE728771C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6529CE17-C973-43C1-A569-7B12F920B9E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{120C70F1-4668-4547-80A0-CA3BB3A17986}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AAC165F-46EC-4F5D-B1C0-80E768D5BA0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2649,7 +2649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80093CB-6784-4418-991A-EAB850A97BC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47650B32-D09D-4C89-8723-E17970DACB5E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3920,18 +3920,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C1CD453-36D3-4D0E-85D9-E5B2E0367699}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16ABC8CC-38F6-457D-9833-354CC0B92E1F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8D327DA4-27CE-4E00-967A-330AD2B3C9D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{828D9A19-CCA0-419F-8D0F-2544E82C0A8A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F9CE0BD-BA64-4C3B-966E-C829A5AB4856}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A793D080-A1AE-4AE2-BC36-8DC02F6455B6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E9883B5-A3F7-4BB0-98EF-3E73A3C042DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44BFBA0D-C042-4B75-94AA-2F965D6AAE13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9302E64D-2358-48AA-8FCB-AF47B33269E4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6B4D2076-6214-4DD2-97AA-764071AC429D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BEF45132-E2B8-4939-8BAB-83FE3B03BA57}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80F5729C-C381-4BC5-B38E-4B1DC63CFDB1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5A5A59B-1842-453F-AF52-A87230EE9BCE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78DB7FD0-F33A-48D1-872E-B8E5C8849F1E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AA7583C5-D53F-4ACC-BDFF-DD23C7F1C944}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A46DA717-6408-4112-AE08-4189FC4926BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89A48664-6B11-481D-9842-4117D5D24AFF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7B5D7EFE-9734-42DD-B170-22DF80DA995F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51A91FFB-28EB-43B3-B161-7378CD1A49B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C0A5F10-5544-43B7-8BB3-D59DF2883B3A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D9D1784-0FD7-4992-8F3E-10BEC99B3271}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8C8F1A54-B825-47B2-8237-058FD1A9C293}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFFE85C1-C1D5-4C62-A4B5-80EEBE09DCBF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{142BF408-D43E-43A2-9BC0-704130F7DA4F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3944,7 +3944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CB58ED-6445-4A3A-9163-0C25409B4478}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DB2684-F51C-43DE-9ECF-721B053B886A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5205,18 +5205,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A3B5355-759D-46AB-A0E6-C71A5CAC7EB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59EBC39C-2B16-4D7E-AE3F-2AF256FFCF99}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{85BDEA89-41E2-434B-893F-A33FEB8360F7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9CA5F80-D87B-4E56-A3C7-5DB96D753B76}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B113DDC2-4E12-4729-9312-A2C1AA802AD7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CECFEE11-5821-4330-A36E-DCB0711C4BE1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75342CF2-7DF1-4924-B63E-0488F8412FED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2BE207F9-FD76-4219-8FA4-457E6DEA25C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F2B677C-2B02-483C-976F-51CF5BAB0D89}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{019AC75A-8DC7-4F88-B02E-E03A67D879D5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99C8D9C6-6CC3-48BC-ABAC-8A2CD70F54B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CC8299F-178A-4DB7-B23A-08260311A006}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F9EF80E-3975-4585-B640-DF0037C7CFDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EB2373AF-0116-4C7B-BE0B-2D86C302F675}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{153CB34A-402E-43C1-9B07-6ABDCBBDAD63}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{18502D84-7128-414F-B4AD-95798A3C73A1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BAE75BAA-83F1-4632-A991-0C9B561DA2E9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8CDA54A0-84EB-4799-BA34-34866E056B1B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99362A90-D26A-40E0-BAE3-5F16338CA941}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0715B52-4D39-4B1E-AEE5-5A884119258D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03E41B03-C0CA-4ABF-B793-3D7ECB221BE2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FE21614B-7071-4B88-8E32-95E77AC7CEBC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D8B1818-02F1-4203-BB54-3AEEBA025090}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26553055-39A1-4452-9B5D-6D83384976C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5229,7 +5229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E0874A-0B79-4AD4-B62A-BBC621276DF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB9C1A1-A359-4508-B7AB-9E98EC5795D8}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6477,18 +6477,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E2FF669-E617-4C67-91B5-69DB3CE27C8B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EEC66AF-794E-49FA-A70E-5D4C00DA3D4E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CC8D36CD-C39E-42ED-9A02-5C53A7669086}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52856416-28E1-4A64-BA7B-1F7FC6E0665C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D316B4A-6DC7-4EEF-82C7-59D5239C5705}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5E91C6F8-A439-4AB5-BDE9-B1EED2E22236}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C539BE1-4625-48D8-B49B-B4866268235F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31D7F456-D552-424A-B8E6-4632A734339F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{86D349F6-9E1F-4094-ACBE-9AF45B78D287}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7BAD4020-5FC1-4441-AB4A-E403162F1592}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04E4F3F5-461A-48E0-9274-4BB562B69A12}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1001580A-ECED-41BD-804F-F4FAEA121E68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0951A2D5-EB95-4766-BE60-69CB5225F699}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{117361D2-F2A1-4F93-9BD1-A57C919645A4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{21AF9DF4-6768-4204-8A02-2183E4D292A5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1C0D44C4-8050-4679-905F-2DF6EDDEF8F3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD1F7D63-8E92-4A50-B519-C64186C77A52}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9247FE65-F3E1-449F-B77C-25A07A575BFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CD21361-CF7F-4878-8769-70DA3CC94F82}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C253DBF8-56BA-4325-AA64-28548737AF1B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B663EF58-5BAF-481A-9703-7694BA664DB8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AF88101E-6B2E-4C27-B7AB-74D988F39EFB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D7EF5AC-6B1D-4CF7-9A3D-B05E891D5B88}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D7C1568-BE72-4DBA-BA3E-C13620EE17FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6501,7 +6501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAEEC43-AEAD-48C4-A2D5-4761BA538C41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71482E9E-9970-4975-BE0E-A225F700724C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7796,18 +7796,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3053304-83E6-41F8-9931-CB4CBEF60936}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC4F7EA1-2240-4326-96AE-36D1E2553C49}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A714F590-93B7-4873-B783-386AE5708F2A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{366FCF5C-B88F-40E8-98E0-DC26A3E01239}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB366BAD-46E4-4C34-80BD-965D0797E718}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{035A9ACC-DBD6-4CAB-A259-22CA4CE87003}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22BEDD32-68D7-4503-AC7F-8A09A09B7C31}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D159116E-7379-4F4C-8AE0-58D2DD09C5C3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64FFB569-BCAD-4DA1-8C1F-3BB53BCDDAFE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{27C233EE-4BAD-4922-B5CD-AB11A806E2A8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{232E9BCD-5783-4558-AEF0-39DEC6CCBAB0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E524ABBE-0CB4-40C3-BBAE-03444FBF2171}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B47534B5-90F4-404C-8AF2-7E71B0C3AF86}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8DDAC251-925E-496A-9FC8-9B06BB3B5D53}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{08B2AB75-D385-478F-BA4D-5B4297011B87}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{18933686-ACF6-440E-AD91-2B429EED1387}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1311F2D0-99B5-418E-8353-211A4C20BF01}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F7EA7E98-936C-4702-8055-3E074A91987F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1240E38-784B-4634-933E-3B6EC246994F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED84D603-0712-4A03-B305-D7C9A518CC73}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{159D408E-8842-445F-BD35-69E48571B4BE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AD5E5CB7-26F2-4DF1-93E9-40BA98E006BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC0D94D8-8A4D-4FEA-A8B7-E41A7C1547FA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{037692DC-8DAE-45C2-A374-848FE4A6205D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7820,7 +7820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F5ED07-AE74-4210-8CC1-1FEE3795FDB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48BE86E-EAD3-4751-968D-F9F94FBF7B3B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9115,18 +9115,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{812E4829-E0A6-4E4C-9F88-10523782AF81}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{737CBB2A-6C22-4A62-A711-2215A8AACE72}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{05EFDBE5-15B1-4A33-9F02-DE6683C64B44}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F38820C7-6636-42B3-9B9B-8C260274554C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D6F6E06-5977-42A5-8986-D4F54E9BCAE9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{24188D26-C177-4949-9CE9-209BB96529A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B3F38B8-EFF2-423E-8C8B-B493B8047249}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9E2CB00-3B00-404C-AEC6-CD54ADCCB190}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{630DC363-D94A-4EBD-A64A-9040E27F05D9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3BD1F6BD-A572-48EF-AC4F-146D459DCDE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{529DFEEF-5879-4CAA-A2CC-56CF284D4B8A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4D5C911D-73B9-4B35-92C8-3B469B85389C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F2BC1824-8823-4179-83AF-20EF31D48BA9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5E2C570-BD35-40B2-A016-6C3EA4AF9BDA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6A46CC38-4EA5-41E9-A5FE-EF55B401E329}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D9EE48D5-48A7-487F-8518-814A71437B0C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33BD586A-4350-4A66-96CF-732E2BFA5C9A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{246CC9CD-92CF-420D-9132-B5DE602ED1BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1A947DC-B7D2-4344-81AC-586E9CFF13CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0224F6DE-C808-4F57-A91C-581B7B79A9BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C5C9A4AA-30D6-4232-B753-A6074EBC8C81}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F3B92DC7-899B-4A70-BA6F-3F12C3C441B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82A8E773-9258-4660-B36F-CC60AE07DE44}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE0B8841-4508-42F9-A43E-5944B06182B1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9139,7 +9139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8B21C-BA82-4B5B-9CB3-C2DC5971B549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A673BD26-AA1A-4BAB-BA90-1C1F4E263A4C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10434,18 +10434,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E74A6C2B-D3F8-41A0-A482-95E8C4D238BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5135F64C-2A94-4185-A4D2-F65C8C7199B3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8DECB6E5-32B3-42B1-ADEA-C04120B9A846}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FF7F755F-8BD4-4890-82A7-448BD327D792}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E245C2C8-09DE-4C19-A24C-A3FAAE4098B4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{154B9FAC-FDA6-480B-9CC4-B18129529F0A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F04E8721-6837-4446-8232-3A726BDCC101}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54ED8952-AC3F-4E87-9E7B-48AA7AF55D88}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D24672FD-3E3E-4628-8CBE-82293AF6CF63}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F3024730-7B62-4F2B-8B95-6C1E4C1E6FD6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{412FDD75-FB4B-4BF7-9C47-63A170882614}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE1C2A4F-3A7E-4921-9715-E0D19A0F373B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C7BA0CBA-B6C6-47E0-92B9-C2FDFB302165}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04575BBE-EC77-442C-B37C-66DA67653A4A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D587A0E-0CF6-42FA-86B7-FCF928BDC5E8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC3CAF14-76E6-462E-9F1D-0F55E84D02EB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2AC41292-88FB-44E4-80CE-D8305C3E9DD2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CBFB77A7-C736-4341-B7ED-5524599B41EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{71E09E97-7CEF-4369-9227-BDA26E09423C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{020C66EB-A083-49FD-ABFB-3C716E041529}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA5334B6-891F-40FE-81CD-1722DD6354A4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B679B5C0-6EA8-490E-A5BC-5BBD6FFADA05}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6021096-7A1F-443A-8E06-F3D99D38BE81}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31CC405E-D80F-491D-9D40-28BBC845D5AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10458,7 +10458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07ED2CF1-2E1B-43AC-BEA6-89339AF1F0DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10874A83-6A7E-4F45-953E-9E9996DE5ABC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11751,18 +11751,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BCACFCC-9785-4DED-828D-728A85D601CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D717E1EF-8483-47DB-B222-76CA9875C965}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E996EDDC-602E-4D9D-A293-2CCEA7E9EE3C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19F0B70F-382E-4640-8165-FC6CBD23BABC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8996EB65-BB3A-448E-9BB3-6C3364EEBCAB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7C1043E2-FDB6-4FB5-A956-DB71CD6EECEB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B019D8A-654A-40D6-AFEA-D5C18292BC36}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DF0EFBC-88C4-4D8E-83CC-5C030BEF77D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF76AD73-7449-4FB4-91B0-36108B13C36B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{51C578EA-07CE-41CC-8787-A2009B4A8EAA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A63728DE-8A50-4204-AE57-493200607EA2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C8DA18B-DC43-41E2-92BF-ACD4D5AEABE3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37C5298C-102B-4B17-9CEA-F5B65A68DC94}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{514E9C98-785E-4718-B42B-293BEC6C21B0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AD4B77C9-1CD7-4C4C-881F-51CFBBF68320}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C89BDEAE-B815-4117-9540-CDB6770DB53B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F915B8F-9BD1-41A3-968A-A4AB0E1AF3BD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C4C15EC4-A03E-45D3-8F36-0556DDE6E1E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AC6CD04D-A238-4B98-BA06-5E3F5BF37F5F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07341F8E-0D25-41BC-88E2-A6BBBEDD15D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA9B9637-9F58-4BAB-992B-64149FA487DB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{276119B8-FDC6-445C-8220-790EBC76C37E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E53D2B11-0F61-425C-A906-F966EE7CE80E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{976CB49D-7B89-4CD2-B32D-7E332E965993}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11775,7 +11775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B522887C-C0EE-44D3-B87E-0B2B6EE088C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747E2490-C1BD-46AC-85F5-16EFC6F2F12C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13062,18 +13062,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1B82FBA-BDA2-4718-9007-8990A783B153}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4CCA6EB-8EF8-48F3-AE4C-980D8DBE2287}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C033662F-2DEC-410C-A3FF-29417F824525}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CD293697-1A9D-4D39-BFEC-0524F26178E5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16E5EA40-66B8-4A1F-9811-43FF0EEC44F3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ACDDF422-701B-4BA3-9A47-7F82D3828A6D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F162049-5D5D-4BAA-8C16-2284AB1486BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2EAD70C-1B63-4FBC-B0A7-66910FEC0B20}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{532865E4-D49C-4928-9098-3B96A379425B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3CAB7D56-B595-45A1-AD1B-637275C6C1B7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{837A1D28-2686-4286-9DC7-86904501F6A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{25CAFB07-0A8F-4DBD-972F-E7F274305A8D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{495C3F95-D3DF-4FEF-B5B2-20A2704132F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27ED7DE3-1B09-4A07-9E1E-93372A96A266}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F82A3716-0C9F-4E4C-9E2A-C301AE52E413}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4182F24D-8194-4AD0-9E69-0CD450EFDE05}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{99BFDF05-4637-423C-B4AF-3A1C18290921}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DDF2FE6B-1B20-4ABB-90DE-56A2F080F498}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D87AD3C0-20AB-4A2C-AE43-106A49D0C0F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{827749E7-4051-4933-BE5C-A3965C80892F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34363547-39D7-4576-8C70-F9F5DF0D5978}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2A03126F-D3F6-45B0-BA80-B8F395200E67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{104EAE24-4E40-4100-917C-B033F919ACD3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9B4DF47-DE45-4FC9-B086-80E05379CA5A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13086,7 +13086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F346C001-04AE-4A8C-8362-AAEB741072DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4E2004-D622-4402-BE64-45D6782F5FF2}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14359,18 +14359,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2FA81D5-3642-4E4B-B381-645FCBC73C89}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12C7D418-7C35-4520-BBBB-F6522D10C9C5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1BC047BA-CCED-4F2D-84F4-016F47933CC6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{391BAB88-932B-4484-852A-A8409EC51822}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8EF1AA0-7D6D-455E-B8BD-62EE98E2442F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ADAFF7CC-0B8C-4FD6-8A62-5A97DB647BAE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB893BFF-CCFF-4E3B-A6B5-13AC5EA4B1E0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48C4C358-F3AD-478C-82B0-75E574BBD07B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6FB868BF-FC3C-4595-B49C-1E4B11D24D55}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C0B1B507-98F5-4E8E-97D8-9C9CAD90D558}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E388B1E-737E-483D-85B1-D9C47DF1234B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5FB2503-C217-48FB-9206-366335A88F67}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{798C0B8E-1DC2-4441-BE03-88CE89437A2F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C53FDCC3-2245-4BF4-81AF-D9A7715352A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0A759674-9522-4067-99E3-EF5A96E1D988}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC69079D-1004-4E7E-9A00-A5C4B88ADA25}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DB385C0-33D8-40D4-AAEA-AECEC0ED5B4B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D57307C6-82E5-4ED3-BDE0-1C8C8FEDE52B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2129E6B7-62B8-4FA0-A034-61D1FA548F57}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1439BADA-7889-4B5C-80DD-C8287FBD9F1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E847ECF-AD08-495F-9174-8B6541872373}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EB2D2906-CA32-4CF6-8054-724604D96D63}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{88AE1871-F151-4DC2-9ABA-2463EED4E61F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4D5D8240-8A3C-4729-A0FE-392B932F5521}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14383,7 +14383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319DE52C-8D8F-4CCE-8079-19B2543D91C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229F2701-6A9E-4B6B-86BA-AA8BB3B8294E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15656,18 +15656,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73A8D45A-F8A9-48BB-88BD-5A01379648F2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{207477CF-ABA7-46E2-89A7-64ED342F5997}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24A804B4-3562-4A8C-99BD-D0E58F65D481}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6372C3B8-2F2F-4155-BDC2-3BB71159C2BE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6D14857-02C2-40BC-94CF-94827ED3F7A0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B9B43ABE-7DE4-4F00-A883-46137F2330A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8535C361-E4AF-4E5C-9C9E-FB72204C175B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7765200C-17A1-4255-8EF3-F49B63C3DC8A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C54DBB7-7B84-412A-B1B2-2A94905BFB3F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DB555B4A-E17B-4E0C-9D07-EC2CA1E93C0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4C3DC8E-8313-4C88-B2A9-64FCED8FE0F8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF781F7C-1C6C-47FC-9F0D-56487BF62940}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89FEF7E5-F88A-4216-9E23-368B59DA7337}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D76E3C99-7D8B-461E-B882-C8C367308598}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7E3C6C14-BCA8-4AC0-938D-20383A66B3D4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92139660-3D01-4730-AE4E-A01933FD09CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE1657FC-14E3-4CA4-A6E9-374798E0C264}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{753823FD-905A-4381-B5BE-DB16C456B67F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B7C070E-E3B7-44B4-AEC7-9FEF3C04528D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0B2B698-1714-4D67-AF16-690C9EA21155}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35463856-51E2-4EAE-A94F-750DEDEB9E02}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4A198B39-CAF0-4D4B-85C1-32CCE36EEFC3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C63FDB24-F944-4038-8310-67371343EA28}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F63DD4F5-18DF-459B-AEC2-238501A5ACB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15680,7 +15680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA35C329-C3A0-4056-9F14-2F31045730BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4612FC-BF23-4AF3-A67F-2DC0EE3F90DB}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16953,18 +16953,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E608FEFC-5412-4C8F-A395-509EE3C27C0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{427FF81E-E886-434F-A5FC-AC1874E9B058}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3804C7CB-1F8B-4D45-A152-17FD92FDBBA9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90E70FD2-6D59-4D5D-B42A-1DF068969A8B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38157EC4-E261-44E6-BC85-7BAFAAD16E93}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0E202EA5-143D-406B-BBBE-A924728C302A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33515D1A-9A3B-47A0-B7DC-7C20B2E362D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8249DD89-7557-4696-88B3-C94726F46718}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4EEF176-EDA2-4B60-BEEB-D5BD2C115757}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CFCFE320-09D1-4C0A-806E-FE411953EB9C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5310009D-0E68-4A04-9BB0-E66D30D0BAE2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A8F8B68-2979-41E0-BC30-82093936A299}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76036BE3-E937-44A7-9274-5272D4790161}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4059B972-8539-4E53-8BF6-A980AAC96DEF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{473031F2-0DEB-49C0-8527-5AD9D9302517}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE801B59-B8C7-4EA3-AC7B-2B2D8055C7F6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4972AFE-FF4A-4ED1-878E-ABCB0C631326}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B777BB86-F385-4D2C-A40E-AA093494EBF1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D30CF29C-C9B6-46DB-A061-0CC64AF1BE02}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{843AE376-10AD-4B44-89D1-395C09520DB0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C66CC6B-8812-4231-B7FF-EF37A3AA045D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{20B6DE28-0CE6-45BE-9D18-95C8B50ABC37}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F525EAC7-0171-484C-95B3-6A8A67CAD37F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2914AB4C-EB01-4B9A-90BA-399CCF6CF125}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
